--- a/ONCHO/Entomological survey Survey/Nigeria/2023/oct/ng_sites.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/oct/ng_sites.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14C5F53-88A1-4978-9C06-28A388B3FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9ABF9-BEC2-4761-A0C9-F09768CA5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2D746BB1-E3D6-41B8-AF2B-9FA011D677B2}"/>
+    <workbookView minimized="1" xWindow="-28800" yWindow="30" windowWidth="28800" windowHeight="15435" xr2:uid="{2D746BB1-E3D6-41B8-AF2B-9FA011D677B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="276">
   <si>
     <t>S/N</t>
   </si>
@@ -62,12 +65,6 @@
     <t>SITE ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Kwara </t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
     <t>Okeso</t>
   </si>
   <si>
@@ -77,24 +74,15 @@
     <t>KWA_ASA_N_001</t>
   </si>
   <si>
-    <t>BARUTEN</t>
-  </si>
-  <si>
     <t>Budo Aiki</t>
   </si>
   <si>
     <t>KWA_BAR_N_002</t>
   </si>
   <si>
-    <t>GBARAGURU</t>
-  </si>
-  <si>
     <t>KWA_BAR_N_003</t>
   </si>
   <si>
-    <t>Ilesha</t>
-  </si>
-  <si>
     <t>KWA_BAR_N_004</t>
   </si>
   <si>
@@ -110,15 +98,9 @@
     <t>KWA_BAR_N_006</t>
   </si>
   <si>
-    <t>YASH./GANDO S</t>
-  </si>
-  <si>
     <t>KWA_BAR_N_007</t>
   </si>
   <si>
-    <t>EDU</t>
-  </si>
-  <si>
     <t>Magabiko-Ndaningi</t>
   </si>
   <si>
@@ -131,9 +113,6 @@
     <t>KWA_EDU_N_009</t>
   </si>
   <si>
-    <t>IFELODUN</t>
-  </si>
-  <si>
     <t>Adigun</t>
   </si>
   <si>
@@ -146,9 +125,6 @@
     <t>KWA_IFE_N_011</t>
   </si>
   <si>
-    <t>AMAYO</t>
-  </si>
-  <si>
     <t>KWA_IFE_N_012</t>
   </si>
   <si>
@@ -158,27 +134,18 @@
     <t>KWA_IFE_N_013</t>
   </si>
   <si>
-    <t>ILORIN WEST</t>
-  </si>
-  <si>
     <t>Osin Aremu</t>
   </si>
   <si>
     <t>KWA_ILO_N_014</t>
   </si>
   <si>
-    <t>ISIN</t>
-  </si>
-  <si>
     <t>Iji</t>
   </si>
   <si>
     <t>KWA_ISI_N_015</t>
   </si>
   <si>
-    <t>KAIAMA</t>
-  </si>
-  <si>
     <t>Ale Gongo</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>KWA_KAI_N_018</t>
   </si>
   <si>
-    <t>MORO</t>
-  </si>
-  <si>
     <t>Aiyilekan</t>
   </si>
   <si>
@@ -218,18 +182,12 @@
     <t>KWA_MOR_N_021</t>
   </si>
   <si>
-    <t>OKE ERO</t>
-  </si>
-  <si>
     <t>Ayekale</t>
   </si>
   <si>
     <t>KWA_OKE_N_022</t>
   </si>
   <si>
-    <t>PATIGI</t>
-  </si>
-  <si>
     <t>Kpada</t>
   </si>
   <si>
@@ -293,18 +251,12 @@
     <t>Sokoto</t>
   </si>
   <si>
-    <t>BODINGA</t>
-  </si>
-  <si>
     <t>Danchadi</t>
   </si>
   <si>
     <t>SOK_BOD_N_001</t>
   </si>
   <si>
-    <t>GORONYO</t>
-  </si>
-  <si>
     <t>Boyekai</t>
   </si>
   <si>
@@ -317,27 +269,18 @@
     <t>SOK_GOR_N_003</t>
   </si>
   <si>
-    <t>GUDU</t>
-  </si>
-  <si>
     <t>Balle</t>
   </si>
   <si>
     <t>SOK_GUD_N_004</t>
   </si>
   <si>
-    <t>ILLELA</t>
-  </si>
-  <si>
     <t>Kalmalo</t>
   </si>
   <si>
     <t>SOK_ILL_N_005</t>
   </si>
   <si>
-    <t>ISA</t>
-  </si>
-  <si>
     <t>Isa</t>
   </si>
   <si>
@@ -350,9 +293,6 @@
     <t>SOK_ISA_N_007</t>
   </si>
   <si>
-    <t>KEBBE</t>
-  </si>
-  <si>
     <t>Asarara Kaura</t>
   </si>
   <si>
@@ -365,45 +305,27 @@
     <t>SOK_KEB_N_009</t>
   </si>
   <si>
-    <t>RABAH</t>
-  </si>
-  <si>
     <t>Sangiwa</t>
   </si>
   <si>
     <t>SOK_RAB_N_010</t>
   </si>
   <si>
-    <t>SABON BIRNI</t>
-  </si>
-  <si>
     <t>Kasabuni</t>
   </si>
   <si>
     <t>SOK_SAB_N_011</t>
   </si>
   <si>
-    <t>SHAGARI</t>
-  </si>
-  <si>
-    <t>shagari</t>
-  </si>
-  <si>
     <t>SOK_SHA_N_012</t>
   </si>
   <si>
-    <t>TURETA</t>
-  </si>
-  <si>
     <t>Tureta</t>
   </si>
   <si>
     <t>SOK_TUR_N_013</t>
   </si>
   <si>
-    <t>TAMBUWAL</t>
-  </si>
-  <si>
     <t>Romo Sarki</t>
   </si>
   <si>
@@ -428,18 +350,12 @@
     <t>SOK_KEB_M_017</t>
   </si>
   <si>
-    <t>FAKAI</t>
-  </si>
-  <si>
     <t>Ijarua</t>
   </si>
   <si>
     <t>SOK_FAK_M_018</t>
   </si>
   <si>
-    <t>SILAME</t>
-  </si>
-  <si>
     <t>Tanera</t>
   </si>
   <si>
@@ -458,9 +374,6 @@
     <t>SOK_RAB_M_021</t>
   </si>
   <si>
-    <t>DANGE-SHUNI</t>
-  </si>
-  <si>
     <t>Tudun Danjeka</t>
   </si>
   <si>
@@ -476,18 +389,12 @@
     <t>Yobe</t>
   </si>
   <si>
-    <t>BARDE</t>
-  </si>
-  <si>
     <t>Dagona</t>
   </si>
   <si>
     <t>YOB_BAR_N_001</t>
   </si>
   <si>
-    <t>BURSARI</t>
-  </si>
-  <si>
     <t>Kaliyari</t>
   </si>
   <si>
@@ -500,9 +407,6 @@
     <t>YOB_BUR_N_003</t>
   </si>
   <si>
-    <t>FIKA</t>
-  </si>
-  <si>
     <t>Chana</t>
   </si>
   <si>
@@ -521,9 +425,6 @@
     <t>YOB_FIK_N_006</t>
   </si>
   <si>
-    <t>FUNE</t>
-  </si>
-  <si>
     <t>Abakiri</t>
   </si>
   <si>
@@ -554,18 +455,12 @@
     <t>YOB_FUN_N_011</t>
   </si>
   <si>
-    <t>GEIDAM</t>
-  </si>
-  <si>
     <t>Gumsa</t>
   </si>
   <si>
     <t>YOB_GEI_N_012</t>
   </si>
   <si>
-    <t>GUJBA</t>
-  </si>
-  <si>
     <t>Katarko</t>
   </si>
   <si>
@@ -578,18 +473,12 @@
     <t>YOB_GUJ_N_014</t>
   </si>
   <si>
-    <t>GULANI</t>
-  </si>
-  <si>
     <t>Dokshi</t>
   </si>
   <si>
     <t>YOB_GUL_N_015</t>
   </si>
   <si>
-    <t>JAKUSKO</t>
-  </si>
-  <si>
     <t>Addia</t>
   </si>
   <si>
@@ -608,18 +497,12 @@
     <t>YOB_JAK_N_018</t>
   </si>
   <si>
-    <t>KARASUWA</t>
-  </si>
-  <si>
     <t>Garunguna</t>
   </si>
   <si>
     <t>YOB_KAR_N_019</t>
   </si>
   <si>
-    <t>NGURU</t>
-  </si>
-  <si>
     <t>Dabule</t>
   </si>
   <si>
@@ -632,18 +515,12 @@
     <t>YOB_NGU_N_021</t>
   </si>
   <si>
-    <t>TARMUWA</t>
-  </si>
-  <si>
     <t>Muli</t>
   </si>
   <si>
     <t>YOB_TAR_N_022</t>
   </si>
   <si>
-    <t>YUNUSARI</t>
-  </si>
-  <si>
     <t>Kachellari</t>
   </si>
   <si>
@@ -719,27 +596,18 @@
     <t>YOB_POT_M_033</t>
   </si>
   <si>
-    <t>BUJI</t>
-  </si>
-  <si>
     <t>Giginya Bakwai</t>
   </si>
   <si>
     <t>JIG_BUJ_N_001</t>
   </si>
   <si>
-    <t>GURI</t>
-  </si>
-  <si>
     <t>Gogiya</t>
   </si>
   <si>
     <t>JIG_GUR_N_002</t>
   </si>
   <si>
-    <t>KAUGAMA</t>
-  </si>
-  <si>
     <t>Dogon/Danji</t>
   </si>
   <si>
@@ -752,54 +620,36 @@
     <t>JIG_KAU_N_004</t>
   </si>
   <si>
-    <t>MALLAM MADURI</t>
-  </si>
-  <si>
     <t>Toni Kutara</t>
   </si>
   <si>
     <t>JIG_MAL_N_005</t>
   </si>
   <si>
-    <t>RINGIM</t>
-  </si>
-  <si>
     <t>Daurawa (Chaichai)</t>
   </si>
   <si>
     <t>JIG_RIN_N_006</t>
   </si>
   <si>
-    <t>RONI</t>
-  </si>
-  <si>
     <t>Zangokaya</t>
   </si>
   <si>
     <t>JIG_RON_N_007</t>
   </si>
   <si>
-    <t>TAURA</t>
-  </si>
-  <si>
     <t>Gilima</t>
   </si>
   <si>
     <t>JIG_TAU_N_008</t>
   </si>
   <si>
-    <t>MALAM MADURI</t>
-  </si>
-  <si>
     <t>Tagoro</t>
   </si>
   <si>
     <t>JIG_MAL_M_009</t>
   </si>
   <si>
-    <t>KAFIN HAUSA</t>
-  </si>
-  <si>
     <t>Yerda</t>
   </si>
   <si>
@@ -815,9 +665,6 @@
     <t>JIG_KAF_M_011</t>
   </si>
   <si>
-    <t>BABURA</t>
-  </si>
-  <si>
     <t>JIG_BAB_M_012</t>
   </si>
   <si>
@@ -827,27 +674,18 @@
     <t>JIG_KAF_M_013</t>
   </si>
   <si>
-    <t>GWARAM</t>
-  </si>
-  <si>
     <t>Farin Dutse</t>
   </si>
   <si>
     <t>JIG_GWA_M_014</t>
   </si>
   <si>
-    <t>JAHUN</t>
-  </si>
-  <si>
     <t>Harbo Tsohuwa</t>
   </si>
   <si>
     <t>JIG_JHA_M_015</t>
   </si>
   <si>
-    <t>KIYAWA</t>
-  </si>
-  <si>
     <t>Balago</t>
   </si>
   <si>
@@ -864,6 +702,171 @@
   </si>
   <si>
     <t>JIG_KIY_M_018</t>
+  </si>
+  <si>
+    <t>Kwara</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Ifelodun</t>
+  </si>
+  <si>
+    <t>Ilorin West</t>
+  </si>
+  <si>
+    <t>Isin</t>
+  </si>
+  <si>
+    <t>Kaiama</t>
+  </si>
+  <si>
+    <t>Moro</t>
+  </si>
+  <si>
+    <t>Oke Ero</t>
+  </si>
+  <si>
+    <t>Patigi</t>
+  </si>
+  <si>
+    <t>Bodinga</t>
+  </si>
+  <si>
+    <t>Goronyo</t>
+  </si>
+  <si>
+    <t>Gudu</t>
+  </si>
+  <si>
+    <t>Illela</t>
+  </si>
+  <si>
+    <t>Kebbe</t>
+  </si>
+  <si>
+    <t>Rabah</t>
+  </si>
+  <si>
+    <t>Shagari</t>
+  </si>
+  <si>
+    <t>Tambuwal</t>
+  </si>
+  <si>
+    <t>Fakai</t>
+  </si>
+  <si>
+    <t>Silame</t>
+  </si>
+  <si>
+    <t>Dange-Shuni</t>
+  </si>
+  <si>
+    <t>Barde</t>
+  </si>
+  <si>
+    <t>Bursari</t>
+  </si>
+  <si>
+    <t>Fune</t>
+  </si>
+  <si>
+    <t>Geidam</t>
+  </si>
+  <si>
+    <t>Gujba</t>
+  </si>
+  <si>
+    <t>Jakusko</t>
+  </si>
+  <si>
+    <t>Karasuwa</t>
+  </si>
+  <si>
+    <t>Nguru</t>
+  </si>
+  <si>
+    <t>Tarmuwa</t>
+  </si>
+  <si>
+    <t>Yunusari</t>
+  </si>
+  <si>
+    <t>Buji</t>
+  </si>
+  <si>
+    <t>Guri</t>
+  </si>
+  <si>
+    <t>Kaugama</t>
+  </si>
+  <si>
+    <t>Ringim</t>
+  </si>
+  <si>
+    <t>Roni</t>
+  </si>
+  <si>
+    <t>Taura</t>
+  </si>
+  <si>
+    <t>Malam Maduri</t>
+  </si>
+  <si>
+    <t>Kafin Hausa</t>
+  </si>
+  <si>
+    <t>Babura</t>
+  </si>
+  <si>
+    <t>Gwaram</t>
+  </si>
+  <si>
+    <t>Jahun</t>
+  </si>
+  <si>
+    <t>Kiyawa</t>
+  </si>
+  <si>
+    <t>Gbaraguru</t>
+  </si>
+  <si>
+    <t>Yash./Gando S</t>
+  </si>
+  <si>
+    <t>Amayo</t>
+  </si>
+  <si>
+    <t>Ilesha_1</t>
+  </si>
+  <si>
+    <t>Ilesha_2</t>
+  </si>
+  <si>
+    <t>Edu_1</t>
+  </si>
+  <si>
+    <t>Edu_2</t>
+  </si>
+  <si>
+    <t>Baruten_1</t>
+  </si>
+  <si>
+    <t>Baruten_2</t>
+  </si>
+  <si>
+    <t>Baruten_4</t>
+  </si>
+  <si>
+    <t>Baruten_3</t>
+  </si>
+  <si>
+    <t>Jigawa_1</t>
+  </si>
+  <si>
+    <t>Jigawa_2</t>
   </si>
 </sst>
 </file>
@@ -960,7 +963,96 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1270,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98C0841-C07F-4B17-B71B-D7A261E1A023}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,9 +1377,14 @@
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,19 +1410,34 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>4.6166700000000001</v>
@@ -1334,25 +1446,40 @@
         <v>8.2833299999999994</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>2.76</v>
@@ -1361,25 +1488,40 @@
         <v>8.68</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="E4" s="3">
         <v>3.51667</v>
@@ -1388,25 +1530,40 @@
         <v>9.3833300000000008</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="E5" s="3">
         <v>3.44</v>
@@ -1415,25 +1572,40 @@
         <v>8.94</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1442,25 +1614,37 @@
         <v>9.2166700000000006</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>2.8767499999999999</v>
@@ -1469,25 +1653,37 @@
         <v>9.0041799999999999</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="E8" s="3">
         <v>3.4</v>
@@ -1496,25 +1692,37 @@
         <v>9.7666699999999995</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3">
         <v>5.2635800000000001</v>
@@ -1523,25 +1731,37 @@
         <v>8.7593700000000005</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>5.2333299999999996</v>
@@ -1550,25 +1770,37 @@
         <v>8.9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>5.0166700000000004</v>
@@ -1577,25 +1809,37 @@
         <v>8.4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>4.9833299999999996</v>
@@ -1604,25 +1848,37 @@
         <v>8.4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3">
         <v>4.7180600000000004</v>
@@ -1631,25 +1887,37 @@
         <v>8.5138800000000003</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>4.9000000000000004</v>
@@ -1658,25 +1926,37 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>4.5741500000000004</v>
@@ -1685,25 +1965,37 @@
         <v>8.4286200000000004</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3">
         <v>5.0151500000000002</v>
@@ -1712,25 +2004,37 @@
         <v>8.2753700000000006</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3">
         <v>4.1900000000000004</v>
@@ -1739,25 +2043,37 @@
         <v>9.48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3">
         <v>4.0199999999999996</v>
@@ -1766,25 +2082,37 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3">
         <v>4.6857199999999999</v>
@@ -1793,25 +2121,37 @@
         <v>9.2128999999999994</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
         <v>4.7699499999999997</v>
@@ -1820,25 +2160,37 @@
         <v>8.7898800000000001</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3">
         <v>4.2333299999999996</v>
@@ -1847,25 +2199,37 @@
         <v>8.7833299999999994</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3">
         <v>4.3833299999999999</v>
@@ -1874,25 +2238,37 @@
         <v>8.6833299999999998</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3">
         <v>5.3</v>
@@ -1901,25 +2277,37 @@
         <v>8.2333300000000005</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3">
         <v>6.08399</v>
@@ -1928,25 +2316,37 @@
         <v>8.6536500000000007</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3">
         <v>5.6887499999999998</v>
@@ -1955,25 +2355,37 @@
         <v>8.5264799999999994</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E26" s="7">
         <v>4.9725607226667004</v>
@@ -1982,25 +2394,37 @@
         <v>9.0873472530000203</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="E27" s="7">
         <v>5.1800607226666999</v>
@@ -2009,25 +2433,37 @@
         <v>8.99151391966668</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="E28" s="7">
         <v>5.2842273893333704</v>
@@ -2036,25 +2472,37 @@
         <v>9.0056805863333498</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7">
         <v>3.2300607226667002</v>
@@ -2063,25 +2511,37 @@
         <v>9.17901391966668</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="E30" s="7">
         <v>3.1525607226667001</v>
@@ -2090,25 +2550,37 @@
         <v>9.2506805863333508</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="E31" s="7">
         <v>3.0125607226666999</v>
@@ -2117,25 +2589,37 @@
         <v>9.0181805863333508</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7">
         <v>2.9892273893333701</v>
@@ -2144,25 +2628,37 @@
         <v>8.7473472530000205</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="E33" s="7">
         <v>3.1550607226667</v>
@@ -2171,25 +2667,37 @@
         <v>8.80401391966668</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="E34" s="7">
         <v>3.2250607226666999</v>
@@ -2198,25 +2706,37 @@
         <v>8.8615139196666792</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="E35" s="7">
         <v>3.3492273893333699</v>
@@ -2225,25 +2745,37 @@
         <v>8.8715139196666808</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E36" s="3">
         <v>5.2247599999999998</v>
@@ -2252,25 +2784,37 @@
         <v>12.795909999999999</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E37" s="3">
         <v>5.5666700000000002</v>
@@ -2279,25 +2823,37 @@
         <v>13.366669999999999</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E38" s="3">
         <v>5.8992899999999997</v>
@@ -2306,25 +2862,37 @@
         <v>13.49166</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E39" s="3">
         <v>4.68119</v>
@@ -2333,25 +2901,37 @@
         <v>13.47029</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E40" s="3">
         <v>5.2464700000000004</v>
@@ -2360,25 +2940,37 @@
         <v>13.72076</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E41" s="3">
         <v>6.4048699999999998</v>
@@ -2387,25 +2979,37 @@
         <v>13.200060000000001</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E42" s="3">
         <v>6.1610899999999997</v>
@@ -2414,25 +3018,37 @@
         <v>13.23847</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E43" s="3">
         <v>4.7343299999999999</v>
@@ -2441,25 +3057,37 @@
         <v>12.12861</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>9</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="E44" s="3">
         <v>4.7369599999999998</v>
@@ -2468,25 +3096,37 @@
         <v>11.77539</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E45" s="3">
         <v>5.6676700000000002</v>
@@ -2495,25 +3135,37 @@
         <v>12.82798</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E46" s="3">
         <v>6.1141300000000003</v>
@@ -2522,25 +3174,37 @@
         <v>13.41694</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="E47" s="3">
         <v>4.9929500000000004</v>
@@ -2549,25 +3213,37 @@
         <v>12.627269999999999</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E48" s="3">
         <v>5.5439100000000003</v>
@@ -2576,25 +3252,37 @@
         <v>12.593669999999999</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E49" s="3">
         <v>4.5843031280000002</v>
@@ -2603,25 +3291,37 @@
         <v>12.220669129999999</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E50" s="3">
         <v>4.8984697949999996</v>
@@ -2630,25 +3330,37 @@
         <v>12.248169130000001</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E51" s="3">
         <v>4.6418031280000003</v>
@@ -2657,25 +3369,31 @@
         <v>12.13566913</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>18</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E52" s="3">
         <v>4.4209697950000004</v>
@@ -2684,25 +3402,31 @@
         <v>11.7098358</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>19</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E53" s="3">
         <v>4.7118031279999997</v>
@@ -2711,25 +3435,31 @@
         <v>11.682335800000001</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E54" s="3">
         <v>4.7326364610000002</v>
@@ -2738,25 +3468,31 @@
         <v>12.9198358</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E55" s="3">
         <v>5.1251364610000003</v>
@@ -2765,25 +3501,31 @@
         <v>12.96566913</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>22</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E56" s="3">
         <v>5.9726364609999996</v>
@@ -2792,25 +3534,31 @@
         <v>12.936502470000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>23</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E57" s="3">
         <v>5.2493031280000002</v>
@@ -2819,25 +3567,31 @@
         <v>12.961502469999999</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>24</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E58" s="3">
         <v>5.7501364610000003</v>
@@ -2846,25 +3600,31 @@
         <v>12.91150247</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E59" s="3">
         <v>10.800750000000001</v>
@@ -2873,25 +3633,31 @@
         <v>12.856769999999999</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E60" s="3">
         <v>11.523389999999999</v>
@@ -2900,25 +3666,31 @@
         <v>12.843489999999999</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E61" s="3">
         <v>11.09639</v>
@@ -2927,25 +3699,31 @@
         <v>12.844440000000001</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>4</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E62" s="3">
         <v>11.02711</v>
@@ -2954,25 +3732,31 @@
         <v>11.4602</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E63" s="3">
         <v>11.162000000000001</v>
@@ -2981,25 +3765,31 @@
         <v>11.39254</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E64" s="3">
         <v>11.26017</v>
@@ -3008,25 +3798,31 @@
         <v>11.573079999999999</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="E65" s="3">
         <v>11.45617</v>
@@ -3035,25 +3831,31 @@
         <v>11.52932</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>8</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E66" s="3">
         <v>11.53825</v>
@@ -3062,25 +3864,31 @@
         <v>11.591189999999999</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>9</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E67" s="3">
         <v>11.470129999999999</v>
@@ -3089,25 +3897,31 @@
         <v>12.163600000000001</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>10</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E68" s="3">
         <v>11.03078</v>
@@ -3116,25 +3930,31 @@
         <v>12.10981</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>11</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E69" s="3">
         <v>11.607939999999999</v>
@@ -3143,25 +3963,31 @@
         <v>11.825989999999999</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>12</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="E70" s="3">
         <v>11.799440000000001</v>
@@ -3170,25 +3996,31 @@
         <v>12.56166</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>13</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="E71" s="3">
         <v>11.91656</v>
@@ -3197,25 +4029,31 @@
         <v>11.56189</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>14</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="E72" s="3">
         <v>12.08521</v>
@@ -3224,25 +4062,31 @@
         <v>11.30504</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>15</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="E73" s="3">
         <v>11.913259999999999</v>
@@ -3251,25 +4095,31 @@
         <v>11.046290000000001</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>16</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="E74" s="3">
         <v>10.676399999999999</v>
@@ -3278,25 +4128,31 @@
         <v>12.6907</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>17</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="E75" s="3">
         <v>11.21355</v>
@@ -3305,25 +4161,31 @@
         <v>12.35216</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>18</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E76" s="3">
         <v>11.106529999999999</v>
@@ -3332,25 +4194,31 @@
         <v>12.2692</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="E77" s="3">
         <v>10.84679</v>
@@ -3359,25 +4227,31 @@
         <v>13.047560000000001</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>20</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="E78" s="3">
         <v>10.42733</v>
@@ -3386,25 +4260,31 @@
         <v>12.976330000000001</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="E79" s="3">
         <v>10.555389999999999</v>
@@ -3413,25 +4293,31 @@
         <v>12.86106</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>22</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E80" s="3">
         <v>12.02055</v>
@@ -3440,25 +4326,31 @@
         <v>12.269170000000001</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E81" s="3">
         <v>11.196300000000001</v>
@@ -3467,25 +4359,31 @@
         <v>13.03783</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E82" s="3">
         <v>10.76458334</v>
@@ -3494,25 +4392,31 @@
         <v>11.655416669999999</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E83" s="3">
         <v>11.082083340000001</v>
@@ -3521,25 +4425,31 @@
         <v>11.502916669999999</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="E84" s="3">
         <v>11.338749999999999</v>
@@ -3548,25 +4458,31 @@
         <v>11.57625</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="E85" s="3">
         <v>11.307916669999999</v>
@@ -3575,25 +4491,31 @@
         <v>11.11791667</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="E86" s="3">
         <v>10.974583340000001</v>
@@ -3602,25 +4524,31 @@
         <v>11.67208333</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>29</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="E87" s="3">
         <v>11.487916670000001</v>
@@ -3629,25 +4557,31 @@
         <v>11.227916670000001</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>30</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="E88" s="3">
         <v>10.75375</v>
@@ -3656,25 +4590,31 @@
         <v>11.54291667</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>31</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="E89" s="3">
         <v>11.328749999999999</v>
@@ -3683,25 +4623,31 @@
         <v>11.00708333</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>32</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="E90" s="3">
         <v>11.04208334</v>
@@ -3710,25 +4656,31 @@
         <v>11.762083329999999</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>33</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="E91" s="3">
         <v>11.65875</v>
@@ -3737,25 +4689,31 @@
         <v>11.14291667</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="E92" s="7">
         <v>11.63165</v>
@@ -3764,25 +4722,31 @@
         <v>9.6719399999999993</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q92" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R92" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>2</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="E93" s="7">
         <v>12.67356</v>
@@ -3791,25 +4755,31 @@
         <v>10.4123</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>3</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E94" s="7">
         <v>12.36609</v>
@@ -3818,25 +4788,31 @@
         <v>9.6460699999999999</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>4</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E95" s="7">
         <v>12.33888</v>
@@ -3845,25 +4821,31 @@
         <v>9.8436599999999999</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>5</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="E96" s="7">
         <v>12.520429999999999</v>
@@ -3872,25 +4854,31 @@
         <v>10.025410000000001</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>6</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="E97" s="7">
         <v>12.01267</v>
@@ -3899,25 +4887,31 @@
         <v>9.2476599999999998</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>7</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="E98" s="7">
         <v>12.646229999999999</v>
@@ -3926,25 +4920,31 @@
         <v>8.3385800000000003</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>8</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="E99" s="7">
         <v>12.2235</v>
@@ -3953,25 +4953,31 @@
         <v>9.4374300000000009</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>9</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="E100" s="7">
         <v>10.16783</v>
@@ -3980,25 +4986,31 @@
         <v>12.591699999999999</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>10</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="E101" s="7">
         <v>10.016159999999999</v>
@@ -4007,25 +5019,31 @@
         <v>12.025040000000001</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>11</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="E102" s="7">
         <v>9.9103300000000001</v>
@@ -4034,25 +5052,31 @@
         <v>12.08254</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>12</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>259</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="E103" s="7">
         <v>9.0144959999999994</v>
@@ -4061,25 +5085,31 @@
         <v>12.630039999999999</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>13</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="E104" s="7">
         <v>9.8186630000000008</v>
@@ -4088,25 +5118,31 @@
         <v>12.0242</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>14</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="E105" s="7">
         <v>9.9461630000000003</v>
@@ -4115,25 +5151,31 @@
         <v>11.182539999999999</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>15</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="E106" s="7">
         <v>9.5403300000000009</v>
@@ -4142,25 +5184,31 @@
         <v>12.160869999999999</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>16</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="E107" s="7">
         <v>9.7044960000000007</v>
@@ -4169,25 +5217,31 @@
         <v>11.92754</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="Q107" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>17</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="E108" s="7">
         <v>9.8003300000000007</v>
@@ -4196,25 +5250,31 @@
         <v>11.3042</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>18</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="E109" s="7">
         <v>9.4486629999999998</v>
@@ -4223,14 +5283,36 @@
         <v>11.678369999999999</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="6" t="s">
-        <v>275</v>
+        <v>220</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:R109">
+    <sortCondition ref="Q2:Q109"/>
+    <sortCondition ref="R2:R109"/>
+  </sortState>
+  <conditionalFormatting sqref="O2:O50">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>